--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,108 +463,1404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>행복스러움 그곳</t>
+          <t>요즘서재</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'metro': '세종', 'basic': 'null', 'city': 'null', 'town': 'null', 'road': '달빛로', 'detail': '16 가재마을 8단지'}</t>
+          <t>{'metro': '서울', 'basic': '송파구', 'city': 'null', 'town': 'null', 'road': '동남로23길', 'detail': '40-11 1층 코너'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">화-&gt; 11:00 - 19:00 수-&gt; 11:00 - 19:00 목-&gt; 11:00 - 19:00 금-&gt; 11:00 - 19:00 토-&gt; 11:00 - 19:00 월-&gt; 11:00 - 19:00 </t>
+          <t>{'07:00 - 24:00': '매일'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">일 </t>
+          <t>null</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0507-1404-7472</t>
+          <t>0507-1336-1637</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>단비책방</t>
+          <t>오케이어 맨션</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'metro': '세종', 'basic': 'null', 'city': 'null', 'town': '전의면', 'road': '비암사길', 'detail': '75'}</t>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '와우산로11길', 'detail': '9-7 상수라이크 2층'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">수-&gt; 10:00 - 19:00 목-&gt; 10:00 - 19:00 금-&gt; 10:00 - 19:00 토-&gt; 10:00 - 19:00 일-&gt; 10:00 - 18:30 </t>
+          <t>{'13:00 - 21:00': '화 목 월', '13:00 - 20:00': '금 토 일'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">화 월 </t>
+          <t xml:space="preserve">수 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>010-9447-1267</t>
+          <t>0507-1474-1165</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>소담서점</t>
+          <t>픽셀 퍼 인치</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'metro': '세종', 'basic': 'null', 'city': 'null', 'town': 'null', 'road': '한누리대로', 'detail': '2016 4층 407호'}</t>
+          <t>{'metro': '서울', 'basic': '용산구', 'city': 'null', 'town': 'null', 'road': '한강대로54길', 'detail': '7 301호'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">매일-&gt; 09:00 - 23:00 </t>
+          <t>{'13:00 - 19:00': '화 수 목 금', '13:00 - 19:30': '토 일'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t xml:space="preserve">월 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0507-1344-2504</t>
+          <t>0507-1336-7403</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>책방에잍</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'metro': '세종', 'basic': 'null', 'city': 'null', 'town': '조치원읍', 'road': '죽림로', 'detail': '32-3 102호'}</t>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '동교로', 'detail': '194 혜원빌딩 1층'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">화-&gt; 12:00 - 17:00 수-&gt; 12:00 - 20:00 목-&gt; 12:00 - 17:00 금-&gt; 12:00 - 17:00 토-&gt; 12:00 - 17:00 </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02-325-1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>유어마인드</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '서대문구', 'city': 'null', 'town': 'null', 'road': '연희로11라길', 'detail': '10-6 2층 우측'}</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'13:00 - 20:00': '수 목 금 토 일 월'}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>070-8821-8990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>공상온도</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '동교로23길', 'detail': '40 지하'}</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'휴무': '수(7/19)', '13:00 - 16:15': '금(7/21) 토(7/22) 일(7/23)'}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0507-1404-0247</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>헬로인디북스</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '동교로46길', 'detail': '33'}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'15:00 - 21:00': '수 목 금 토 일 월'}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>010-4563-7830</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>책방 연희</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '와우산로35길', 'detail': '3 B1F'}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'12:00 - 18:00': '목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 수 월 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0507-1429-5502</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>책방오늘</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '종로구', 'city': 'null', 'town': 'null', 'road': '자하문로6길', 'detail': '11 1호'}</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'13:00 - 19:00': '화 수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02-733-7077</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>스페인책방</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '중구', 'city': 'null', 'town': 'null', 'road': '퇴계로36길', 'detail': '29 기남빌딩 302호'}</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'14:00 - 20:00': '화 수 목 금 월', '13:00 - 18:00': '토'}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">일 </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0507-1311-7694</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>오브젝트 삼청점</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '종로구', 'city': 'null', 'town': 'null', 'road': '북촌로5길', 'detail': '6 1층'}</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'12:00 - 20:00': '매일'}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>070-4829-9008</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>책익다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '와우산로29마길', 'detail': '10-3 2층'}</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'19:00 - 23:00': '수 목 금', '15:00 - 23:00': '토 일'}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0507-1391-0315</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>새벽감성1집</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '양천구', 'city': 'null', 'town': 'null', 'road': '월정로50길', 'detail': '16-8 1층 새벽감성1집'}</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'12:00 - 13:00': '화(7/18)', '12:00 - 19:00': '목 금 월', '휴무': '토(7/22)', '14:00 - 19:00': '일'}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0507-1365-1209</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>땡스북스</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '양화로6길', 'detail': '57-6'}</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'12:00 - 21:00': '화 수 목 금 토 일 월'}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>02-325-0321</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>쎄임더스트</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '성동구', 'city': 'null', 'town': 'null', 'road': '성수일로', 'detail': '44-1 2층'}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'12:00 - 20:00': '화 수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>02-468-2905</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>이후북스</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '망원로4길', 'detail': '24 / 2층'}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'13:00 - 18:00': '화 일 월', '13:00 - 20:00': '수 목 금 토'}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>010-4448-7991</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>오케이어 맨션</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '와우산로11길', 'detail': '9-7 상수라이크 2층'}</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'13:00 - 21:00': '화 목 월', '13:00 - 20:00': '금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0507-1474-1165</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>소수책방</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '중구', 'city': 'null', 'town': 'null', 'road': '다산로20길', 'detail': '26 2층'}</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'14:00 - 21:00': '수 목 금', '14:00 - 22:00': '토 일'}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0507-1303-2439</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>낫저스트북스</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '성동구', 'city': 'null', 'town': 'null', 'road': '성덕정9가길', 'detail': '14 1층(성수동1가)'}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'14:00 - 20:00': '수(7/19)', '12:00 - 20:00': '목 금 토 일 월'}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>070-4112-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>책오늘을향유</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '양천구', 'city': 'null', 'town': 'null', 'road': '화곡로', 'detail': '78 B1'}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'10:00 - 24:00': '화 일 월', '16:00 - 24:00': '수 목 금', '17:00 - 22:00': '토'}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>010-5634-7427</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>아니마 아니무스</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '광진구', 'city': 'null', 'town': 'null', 'road': '아차산로39길', 'detail': '8 1층'}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'11:00 - 18:00': '화 수 목 금 토 월'}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">일 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>010-8968-2635</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>믿음문고</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '서초구', 'city': 'null', 'town': 'null', 'road': '양재천로', 'detail': '95-4 1F'}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'11:00 - 19:00': '화 수 목 금 토'}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t xml:space="preserve">일 월 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0507-1362-7889</t>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0507-1332-8248</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>별책부록</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '용산구', 'city': 'null', 'town': 'null', 'road': '신흥로16길', 'detail': '7 1층'}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'13:30 - 19:30': '화 수 목 금', '13:30 - 18:00': '토 일'}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>070-4007-6690</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>책바</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '포은로', 'detail': '90 301호'}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'18:30 - 01:30': '화 수 목 금 토'}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">일 월 </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0507-1402-5858</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>프루스트의 서재</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '성동구', 'city': 'null', 'town': 'null', 'road': '무수막길', 'detail': '56 1F'}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'13:00 - 20:00': '화 수 목 금 토', '정보없음': '일 월'}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>010-8988-2682</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>스토리지북앤필름</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '용산구', 'city': 'null', 'town': 'null', 'road': '신흥로', 'detail': '115-1 1층'}</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'14:00 - 19:00': '화 목 금 토 일 월', '14:30 - 19:30': '수'}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>070-5103-9975</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>노말에이</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '중구', 'city': 'null', 'town': 'null', 'road': '마른내로', 'detail': '12 4층'}</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>02-6747-5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>관객의취향</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '관악구', 'city': 'null', 'town': 'null', 'road': '관악로', 'detail': '204 3층 301호'}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'15:00 - 21:00': '화 수 월', '13:00 - 19:00': '일'}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">목 금 토 </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0507-1460-2058</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>책방시나브로</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '은평구', 'city': 'null', 'town': 'null', 'road': '책방시나브로', 'detail': '11-1 1층 (BOOKSHOP)'}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'13:00 - 20:00': '수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0507-1356-1078</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>짐프리 물품보관소</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '양화로', 'detail': '161 B1 &amp; B2'}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'11:00 - 22:00': '매일'}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>02-322-1816</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>하우스북스 채널씨</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '송파구', 'city': 'null', 'town': 'null', 'road': '백제고분로9길', 'detail': '5'}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'11:00 - 19:00': '화 수 목 금 토 일 월'}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>02-6000-6675</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>고요서사</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '용산구', 'city': 'null', 'town': 'null', 'road': '신흥로15길', 'detail': '18-4 1층 고요서사'}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'13:00 - 20:00': '수 목', '13:00 - 19:00': '금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0507-1410-4226</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>서촌 그 책방</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '종로구', 'city': 'null', 'town': 'null', 'road': '자하문로5가길', 'detail': '30-1'}</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'11:00 - 19:00': '수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>010-2694-2894</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>무아레 서점</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '동대문구', 'city': 'null', 'town': 'null', 'road': '천호대로89길', 'detail': '9 2층'}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'12:00 - 19:00': '화 수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0507-1307-7656</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>아침달</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '성미산로', 'detail': '153-16 2층'}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'13:00 - 20:00': '화 수 목 금 토 월'}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">일 </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0507-1317-5238</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>공간과몰입</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '종로구', 'city': 'null', 'town': 'null', 'road': '낙산길', 'detail': '19 1층'}</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{'19:00 - 22:00': '수 금', '13:00 - 19:00': '토 일'}</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 목 월 </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>010-4963-8097</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>요즘서재</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '송파구', 'city': 'null', 'town': 'null', 'road': '동남로23길', 'detail': '40-11 1층 코너'}</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{'07:00 - 24:00': '매일'}</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0507-1336-1637</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>비화림</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '종로구', 'city': 'null', 'town': 'null', 'road': '창덕궁길', 'detail': '153 1층 비화림서점'}</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{'12:00 - 19:00': '수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0507-1362-0312</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>새고서림</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '영등포구', 'city': 'null', 'town': 'null', 'road': '영신로39길', 'detail': '8-1 201호'}</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'00:00 - 24:00': '화(7/18)', '13:00 - 20:00': '수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0507-1441-2125</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>아인서점</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '월드컵로3길', 'detail': '31-30 3층'}</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'14:00 - 20:00': '화 수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>070-8667-0033</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>다시서점</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '강서구', 'city': 'null', 'town': 'null', 'road': '공항대로8길', 'detail': '77-24 1층, 지층'}</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{'12:00 - 18:00': '수 목 금 토'}</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 일 월 </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0507-1411-4869</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>책방 곱셈</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '성미산로29길', 'detail': '33 1층'}</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{'13:00 - 19:00': '수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0507-1320-8063</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>올오어낫싱</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '금천구', 'city': 'null', 'town': 'null', 'road': '시흥대로', 'detail': '315 금천롯데캐슬골드파크4차 마르쉐도르960동 2층 204호'}</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>매일 13:00 - 21:00 매주 일요일 휴무 &amp; 간헐적 휴무</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0507-1342-7595</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>스토리지북앤필름 로터리점</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '용산구', 'city': 'null', 'town': 'null', 'road': '신흥로36길', 'detail': '5 1층'}</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{'13:00 - 19:00': '매일'}</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0507-1398-9975</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>그림책방 종달새의 마음</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '성북구', 'city': 'null', 'town': 'null', 'road': '월곡로', 'detail': '54 1층 좌측점포'}</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>{'13:00 - 17:00': '화(7/18) 수(7/19)', '휴무': '토(7/22) 일(7/23)'}</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">목 금 월 </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>010-2416-3165</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>미스터리 유니온</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '서대문구', 'city': 'null', 'town': 'null', 'road': '이화여대길', 'detail': '88-11'}</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>{'13:00 - 20:00': '화 수 목 금 토', '정보없음': '일 월'}</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>02-6080-7040</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>독서관</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '마포구', 'city': 'null', 'town': 'null', 'road': '동교로27길', 'detail': '41 1층 독서관'}</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>{'11:30 - 19:30': '화 수 목 금 토 일'}</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월 </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>010-5287-1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>비주얼 콜렉트</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '성동구', 'city': 'null', 'town': 'null', 'road': '연무장13길', 'detail': '3 2층 오른쪽호'}</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>{'13:00 - 19:00': '금 토'}</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 수 목 일 월 </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0507-1300-9101</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>자각몽</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '종로구', 'city': 'null', 'town': 'null', 'road': '창경궁로', 'detail': '297-2'}</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>{'00:00 - 24:00': '매일'}</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>옥수서재</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '성동구', 'city': 'null', 'town': 'null', 'road': '한림말1길', 'detail': '16-1 B1층'}</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>010-5473-3012</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>책방 오후 다섯시</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '동대문구', 'city': 'null', 'town': 'null', 'road': '회기로26길', 'detail': '14'}</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>다정한 책방</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>{'metro': '서울', 'basic': '동작구', 'city': 'null', 'town': 'null', 'road': '동작대로9가길', 'detail': '32 1층 다정한 책방'}</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>{'13:00 - 21:00': '수 목 금 토', '12:00 - 19:30': '일'}</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화 월 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>02-6952-1025</t>
         </is>
       </c>
     </row>
